--- a/config_10.27/box_exchange_server.xlsx
+++ b/config_10.27/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -4005,9 +4005,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5417,6 +5417,9 @@
       </c>
     </row>
     <row r="48" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="50">
+        <v>47</v>
+      </c>
       <c r="B48" s="51" t="s">
         <v>527</v>
       </c>
@@ -5440,7 +5443,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="50">
+        <v>48</v>
+      </c>
       <c r="B49" s="51" t="s">
         <v>528</v>
       </c>
@@ -5464,7 +5470,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="50">
+        <v>49</v>
+      </c>
       <c r="B50" s="51" t="s">
         <v>529</v>
       </c>
@@ -5488,7 +5497,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="50">
+        <v>50</v>
+      </c>
       <c r="B51" s="51" t="s">
         <v>530</v>
       </c>
@@ -5512,7 +5524,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="50">
+        <v>51</v>
+      </c>
       <c r="B52" s="51" t="s">
         <v>531</v>
       </c>
@@ -5536,7 +5551,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="50">
+        <v>52</v>
+      </c>
       <c r="B53" s="51" t="s">
         <v>532</v>
       </c>
@@ -6311,10 +6329,10 @@
   <dimension ref="A1:E341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B323" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B300" sqref="B300"/>
+      <selection pane="bottomRight" activeCell="B328" sqref="B328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11114,8 +11132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I343" sqref="I343"/>
     </sheetView>
   </sheetViews>

--- a/config_10.27/box_exchange_server.xlsx
+++ b/config_10.27/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -4005,9 +4005,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5438,7 +5438,9 @@
       <c r="I48" s="53">
         <v>1</v>
       </c>
-      <c r="J48" s="53"/>
+      <c r="J48" s="53">
+        <v>0</v>
+      </c>
       <c r="K48" s="50">
         <v>47</v>
       </c>
@@ -5465,7 +5467,9 @@
       <c r="I49" s="53">
         <v>1</v>
       </c>
-      <c r="J49" s="53"/>
+      <c r="J49" s="53">
+        <v>0</v>
+      </c>
       <c r="K49" s="50">
         <v>48</v>
       </c>
@@ -5492,7 +5496,9 @@
       <c r="I50" s="53">
         <v>1</v>
       </c>
-      <c r="J50" s="53"/>
+      <c r="J50" s="53">
+        <v>0</v>
+      </c>
       <c r="K50" s="50">
         <v>49</v>
       </c>
@@ -5519,7 +5525,9 @@
       <c r="I51" s="53">
         <v>1</v>
       </c>
-      <c r="J51" s="53"/>
+      <c r="J51" s="53">
+        <v>0</v>
+      </c>
       <c r="K51" s="50">
         <v>50</v>
       </c>
@@ -5546,7 +5554,9 @@
       <c r="I52" s="53">
         <v>1</v>
       </c>
-      <c r="J52" s="53"/>
+      <c r="J52" s="53">
+        <v>0</v>
+      </c>
       <c r="K52" s="50">
         <v>51</v>
       </c>
@@ -5573,7 +5583,9 @@
       <c r="I53" s="53">
         <v>1</v>
       </c>
-      <c r="J53" s="53"/>
+      <c r="J53" s="53">
+        <v>0</v>
+      </c>
       <c r="K53" s="50">
         <v>52</v>
       </c>
@@ -11132,9 +11144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F341"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I343" sqref="I343"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C343" sqref="C343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15852,6 +15864,9 @@
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>305</v>
+      </c>
       <c r="B306" s="1">
         <v>11779</v>
       </c>
@@ -15866,6 +15881,9 @@
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>306</v>
+      </c>
       <c r="B307" s="1">
         <v>11780</v>
       </c>
@@ -15880,6 +15898,9 @@
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>307</v>
+      </c>
       <c r="B308" s="1">
         <v>11781</v>
       </c>
@@ -15894,6 +15915,9 @@
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>308</v>
+      </c>
       <c r="B309" s="1">
         <v>11782</v>
       </c>
@@ -15908,6 +15932,9 @@
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>309</v>
+      </c>
       <c r="B310" s="1">
         <v>11783</v>
       </c>
@@ -15922,6 +15949,9 @@
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>310</v>
+      </c>
       <c r="B311" s="1">
         <v>11784</v>
       </c>
@@ -15936,6 +15966,9 @@
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>311</v>
+      </c>
       <c r="B312" s="1">
         <v>11785</v>
       </c>
@@ -15950,6 +15983,9 @@
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>312</v>
+      </c>
       <c r="B313" s="1">
         <v>11786</v>
       </c>
@@ -15964,6 +16000,9 @@
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>313</v>
+      </c>
       <c r="B314" s="1">
         <v>11787</v>
       </c>
@@ -15978,6 +16017,9 @@
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>314</v>
+      </c>
       <c r="B315" s="1">
         <v>11788</v>
       </c>
@@ -15992,6 +16034,9 @@
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>315</v>
+      </c>
       <c r="B316" s="1">
         <v>11789</v>
       </c>
@@ -16006,6 +16051,9 @@
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>316</v>
+      </c>
       <c r="B317" s="1">
         <v>11790</v>
       </c>
@@ -16020,6 +16068,9 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>317</v>
+      </c>
       <c r="B318" s="1">
         <v>11791</v>
       </c>
@@ -16034,6 +16085,9 @@
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>318</v>
+      </c>
       <c r="B319" s="1">
         <v>11792</v>
       </c>
@@ -16048,6 +16102,9 @@
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>319</v>
+      </c>
       <c r="B320" s="1">
         <v>11793</v>
       </c>
@@ -16061,7 +16118,10 @@
         <v>367</v>
       </c>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>320</v>
+      </c>
       <c r="B321" s="1">
         <v>11794</v>
       </c>
@@ -16075,7 +16135,10 @@
         <v>368</v>
       </c>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>321</v>
+      </c>
       <c r="B322" s="1">
         <v>11795</v>
       </c>
@@ -16089,7 +16152,10 @@
         <v>573</v>
       </c>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>322</v>
+      </c>
       <c r="B323" s="1">
         <v>11796</v>
       </c>
@@ -16103,7 +16169,10 @@
         <v>574</v>
       </c>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>323</v>
+      </c>
       <c r="B324" s="1">
         <v>11797</v>
       </c>
@@ -16117,7 +16186,10 @@
         <v>369</v>
       </c>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>324</v>
+      </c>
       <c r="B325" s="1">
         <v>11798</v>
       </c>
@@ -16131,7 +16203,10 @@
         <v>370</v>
       </c>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>325</v>
+      </c>
       <c r="B326" s="1">
         <v>11799</v>
       </c>
@@ -16145,7 +16220,10 @@
         <v>371</v>
       </c>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>326</v>
+      </c>
       <c r="B327" s="1">
         <v>11800</v>
       </c>
@@ -16159,7 +16237,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>327</v>
+      </c>
       <c r="B328" s="1">
         <v>11801</v>
       </c>
@@ -16173,7 +16254,10 @@
         <v>575</v>
       </c>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>328</v>
+      </c>
       <c r="B329" s="1">
         <v>11802</v>
       </c>
@@ -16187,7 +16271,10 @@
         <v>576</v>
       </c>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>329</v>
+      </c>
       <c r="B330" s="1">
         <v>11803</v>
       </c>
@@ -16201,7 +16288,10 @@
         <v>373</v>
       </c>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>330</v>
+      </c>
       <c r="B331" s="1">
         <v>11804</v>
       </c>
@@ -16215,7 +16305,10 @@
         <v>374</v>
       </c>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>331</v>
+      </c>
       <c r="B332" s="1">
         <v>11805</v>
       </c>
@@ -16229,7 +16322,10 @@
         <v>375</v>
       </c>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>332</v>
+      </c>
       <c r="B333" s="1">
         <v>11806</v>
       </c>
@@ -16243,7 +16339,10 @@
         <v>376</v>
       </c>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>333</v>
+      </c>
       <c r="B334" s="1">
         <v>11807</v>
       </c>
@@ -16257,7 +16356,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>334</v>
+      </c>
       <c r="B335" s="1">
         <v>11808</v>
       </c>
@@ -16271,7 +16373,10 @@
         <v>578</v>
       </c>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>335</v>
+      </c>
       <c r="B336" s="1">
         <v>11809</v>
       </c>
@@ -16285,7 +16390,10 @@
         <v>377</v>
       </c>
     </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>336</v>
+      </c>
       <c r="B337" s="1">
         <v>11810</v>
       </c>
@@ -16299,7 +16407,10 @@
         <v>378</v>
       </c>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>337</v>
+      </c>
       <c r="B338" s="1">
         <v>11811</v>
       </c>
@@ -16313,7 +16424,10 @@
         <v>379</v>
       </c>
     </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>338</v>
+      </c>
       <c r="B339" s="1">
         <v>11812</v>
       </c>
@@ -16327,7 +16441,10 @@
         <v>380</v>
       </c>
     </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>339</v>
+      </c>
       <c r="B340" s="1">
         <v>11813</v>
       </c>
@@ -16341,7 +16458,10 @@
         <v>579</v>
       </c>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>340</v>
+      </c>
       <c r="B341" s="1">
         <v>11814</v>
       </c>

--- a/config_10.27/box_exchange_server.xlsx
+++ b/config_10.27/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -4005,9 +4005,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5444,8 +5444,11 @@
       <c r="K48" s="50">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L48" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="50">
         <v>48</v>
       </c>
@@ -5473,8 +5476,11 @@
       <c r="K49" s="50">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L49" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="50">
         <v>49</v>
       </c>
@@ -5502,8 +5508,11 @@
       <c r="K50" s="50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L50" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="50">
         <v>50</v>
       </c>
@@ -5531,8 +5540,11 @@
       <c r="K51" s="50">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L51" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="50">
         <v>51</v>
       </c>
@@ -5560,8 +5572,11 @@
       <c r="K52" s="50">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L52" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="50">
         <v>52</v>
       </c>
@@ -5588,6 +5603,9 @@
       </c>
       <c r="K53" s="50">
         <v>52</v>
+      </c>
+      <c r="L53" s="50">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5604,7 +5622,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -6341,7 +6359,7 @@
   <dimension ref="A1:E341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B305" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B328" sqref="B328"/>
@@ -11144,9 +11162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C343" sqref="C343"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E341" sqref="E341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16487,7 +16505,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
